--- a/Results/Plot data/IPCC archive/ipcc_ar6_figure_spm_1_archive.xlsx
+++ b/Results/Plot data/IPCC archive/ipcc_ar6_figure_spm_1_archive.xlsx
@@ -1,205 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\AR6-Emissions-trends-and-drivers\Results\Plot data\IPCC archive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="panel_a" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="panel_a_totals_and_rates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="panel_a_shares" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="panel_a_waterfall" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="panel_a_stack" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="panel_b" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="panel_a" sheetId="1" r:id="rId1"/>
+    <sheet name="panel_a_totals_and_rates" sheetId="2" r:id="rId2"/>
+    <sheet name="panel_a_shares" sheetId="3" r:id="rId3"/>
+    <sheet name="panel_a_waterfall" sheetId="4" r:id="rId4"/>
+    <sheet name="panel_a_stack" sheetId="5" r:id="rId5"/>
+    <sheet name="panel_b" sheetId="6" r:id="rId6"/>
+    <sheet name="table" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 FFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 LULUCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fgas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019 Emissions (GtCO2eq)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990-2019 Growth (GtCO2eq)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in GHG emissions relative to 1990 (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38±3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6±4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11±3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7±1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4±0.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59±6.6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="58">
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>CO2 FFI</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>CO2 LULUCF</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>Fgas</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>uncertainty_start</t>
+  </si>
+  <si>
+    <t>uncertainty_end</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>2019 Emissions (GtCO2eq)</t>
+  </si>
+  <si>
+    <t>1990-2019 Growth (GtCO2eq)</t>
+  </si>
+  <si>
+    <t>Change in GHG emissions relative to 1990 (%)</t>
+  </si>
+  <si>
+    <t>38±3</t>
+  </si>
+  <si>
+    <t>6.6±4.6</t>
+  </si>
+  <si>
+    <t>11±3.2</t>
+  </si>
+  <si>
+    <t>2.7±1.6</t>
+  </si>
+  <si>
+    <t>1.4±0.41</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>59±6.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,9 +238,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,1671 +549,1673 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>22.7278825117111</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>22.727882511711101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.979180807728</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>4.9791808077280004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.17558268994896</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>8.1755826899489605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.00642716754084</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>2.0064271675408398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.381216423881282</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>0.38121642388128202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>22.8608054458048</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.93705854162133</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>4.9370585416213304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.12067446057568</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.99939597916104</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10">
+        <v>1.9993959791610401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.396099605425283</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>22.7973204857492</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.94476376996267</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="C13">
+        <v>4.9447637699626696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>8.12317937232918</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>8.1231793723291794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.01570991212078</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.403242312333865</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>0.40324231233386498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="n">
-        <v>22.8952027577176</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>22.895202757717598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="n">
-        <v>4.95038710129067</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="C18">
+        <v>4.9503871012906702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="n">
-        <v>8.1112387252679</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="C19">
+        <v>8.1112387252678992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.01129632106231</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>2.0112963210623098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.415991162732946</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21">
+        <v>0.41599116273294601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="n">
-        <v>23.1341608835042</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>23.134160883504201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.92721480013867</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>4.9272148001386702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
-        <v>8.16810972379053</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="C24">
+        <v>8.1681097237905291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.05574953817727</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="C25">
+        <v>2.0557495381772699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.449428755046009</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>0.44942875504600899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="n">
-        <v>23.791417902752</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="C27">
+        <v>23.791417902751999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.89187336204267</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="n">
-        <v>8.28068280353069</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>8.2806828035306896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="n">
-        <v>2.11970750819197</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>2.1197075081919698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.498128786341533</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>0.49812878634153301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="n">
-        <v>24.2389537984593</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>24.238953798459299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="n">
-        <v>4.829820287952</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>4.8298202879519998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="n">
-        <v>8.37851843757582</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="C34">
+        <v>8.3785184375758206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="n">
-        <v>2.16758632501459</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="C35">
+        <v>2.1675863250145899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.531939552487414</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="C36">
+        <v>0.53193955248741398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="n">
-        <v>24.6896179009045</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="C37">
+        <v>24.689617900904501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="n">
-        <v>6.55340794822933</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38">
+        <v>6.5534079482293297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" t="n">
-        <v>8.37251836824657</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>8.3725183682465705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" t="n">
-        <v>2.1574787499978</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>2.1574787499978001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.566835583280444</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="C41">
+        <v>0.56683558328044403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="n">
-        <v>24.8245264087741</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="C42">
+        <v>24.824526408774101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" t="n">
-        <v>4.56696826829867</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="C43">
+        <v>4.5669682682986696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="n">
-        <v>8.28089621769761</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="C44">
+        <v>8.2808962176976095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45" t="n">
-        <v>2.14042841905745</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45">
+        <v>2.1404284190574501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.59561157093514</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="C46">
+        <v>0.59561157093513994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="C47" t="n">
-        <v>25.0005469983828</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="C47">
+        <v>25.000546998382799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="n">
-        <v>4.508682009712</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="C48">
+        <v>4.5086820097120004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" t="n">
-        <v>8.31341871672003</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="C49">
+        <v>8.3134187167200295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C50" t="n">
-        <v>2.14834784969047</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="C50">
+        <v>2.1483478496904702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.61777226901104</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>0.61777226901103999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>25.8473180868132</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
-      <c r="C53" t="n">
-        <v>5.05170398532267</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="C53">
+        <v>5.0517039853226704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" t="n">
-        <v>8.43768841872268</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="C54">
+        <v>8.4376884187226793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2.16478916665764</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.655705087850153</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="C56">
+        <v>0.65570508785015302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>26.1715889388161</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C58" t="n">
-        <v>4.88591768026667</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="C58">
+        <v>4.8859176802666697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
-      <c r="C59" t="n">
-        <v>8.45155015493985</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>8.4515501549398504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>2.17286535719865</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.660155956268442</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="C61">
+        <v>0.66015595626844203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>26.5344190665088</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" t="n">
-        <v>5.50042406870933</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="C63">
+        <v>5.5004240687093304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
-      <c r="C64" t="n">
-        <v>8.44785213115087</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="C64">
+        <v>8.4478521311508707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="n">
-        <v>2.19792969281145</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>2.1979296928114498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.737170097917884</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="C66">
+        <v>0.73717009791788402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="C67" t="n">
-        <v>27.7995268106743</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="C67">
+        <v>27.799526810674301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.665169111376</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="C68">
+        <v>5.6651691113759997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
-      <c r="C69" t="n">
-        <v>8.71209103314128</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="C69">
+        <v>8.7120910331412809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>2.22962595826111</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.767393658719658</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="C71">
+        <v>0.76739365871965803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
-      <c r="C72" t="n">
-        <v>29.0925481751366</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>29.092548175136599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.54685124291733</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
-      <c r="C74" t="n">
-        <v>8.91054288223696</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="C74">
+        <v>8.9105428822369603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
-      <c r="C75" t="n">
-        <v>2.30132342918741</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="C75">
+        <v>2.3013234291874101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.8480087680807</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="C76">
+        <v>0.84800876808070003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
-      <c r="C77" t="n">
-        <v>30.1700253299925</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="C77">
+        <v>30.170025329992502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
-      <c r="C78" t="n">
-        <v>5.194334723936</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="C78">
+        <v>5.1943347239359996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
       </c>
-      <c r="C79" t="n">
-        <v>9.09171059846931</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="C79">
+        <v>9.0917105984693105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.32485056153308</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="C80">
+        <v>2.3248505615330801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.908472287744949</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="C81">
+        <v>0.90847228774494904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
       </c>
-      <c r="C82" t="n">
-        <v>31.2005699011361</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="C82">
+        <v>31.200569901136099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
-      <c r="C83" t="n">
-        <v>5.48132627112533</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="C83">
+        <v>5.4813262711253303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
       </c>
-      <c r="C84" t="n">
-        <v>9.2690085174304</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="C84">
+        <v>9.2690085174304002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.36697695891377</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="C85">
+        <v>2.3669769589137699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
       </c>
-      <c r="C86" t="n">
-        <v>0.877785810766169</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="C86">
+        <v>0.87778581076616902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
       </c>
-      <c r="C87" t="n">
-        <v>32.4060315289608</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="C87">
+        <v>32.406031528960803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
-      <c r="C88" t="n">
-        <v>4.80616361454933</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="C88">
+        <v>4.8061636145493303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
       </c>
-      <c r="C89" t="n">
-        <v>9.35468547686209</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="C89">
+        <v>9.3546854768620893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
-      <c r="C90" t="n">
-        <v>2.41295919650284</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="C90">
+        <v>2.4129591965028401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.879118168819757</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="C91">
+        <v>0.87911816881975702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
-      <c r="C92" t="n">
-        <v>32.6214980936267</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="C92">
+        <v>32.621498093626698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
       </c>
-      <c r="C93" t="n">
-        <v>4.97515829509867</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="C93">
+        <v>4.9751582950986704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>9.5155069286025</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
-      <c r="C95" t="n">
-        <v>2.38958961833115</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="C95">
+        <v>2.3895896183311498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
-      <c r="C96" t="n">
-        <v>0.855568648353471</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="C96">
+        <v>0.85556864835347102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
       </c>
-      <c r="C97" t="n">
-        <v>32.2803160523147</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="C97">
+        <v>32.280316052314703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
       </c>
-      <c r="C98" t="n">
-        <v>5.86615657340267</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C98">
+        <v>5.8661565734026704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
       </c>
-      <c r="C99" t="n">
-        <v>9.49267164996975</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="C99">
+        <v>9.4926716499697505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C100" t="n">
-        <v>2.39734350823087</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="C100">
+        <v>2.3973435082308701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="C101" t="n">
-        <v>0.877874049586454</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="C101">
+        <v>0.87787404958645399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
       </c>
-      <c r="C102" t="n">
-        <v>34.180727136629</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="C102">
+        <v>34.180727136629002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
       </c>
-      <c r="C103" t="n">
-        <v>5.33731686335467</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="C103">
+        <v>5.3373168633546699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" t="s">
         <v>28</v>
       </c>
-      <c r="C104" t="n">
-        <v>9.66424928526536</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="C104">
+        <v>9.6642492852653596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
       </c>
-      <c r="C105" t="n">
-        <v>2.42369399191491</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="C105">
+        <v>2.4236939919149099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
       </c>
-      <c r="C106" t="n">
-        <v>0.942758172493304</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="C106">
+        <v>0.94275817249330396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
       </c>
-      <c r="C107" t="n">
-        <v>35.1857131825334</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="C107">
+        <v>35.185713182533398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
       <c r="B108" t="s">
         <v>29</v>
       </c>
-      <c r="C108" t="n">
-        <v>5.06208077041067</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="C108">
+        <v>5.0620807704106703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>29</v>
       </c>
-      <c r="C109" t="n">
-        <v>9.86385217207488</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="C109">
+        <v>9.8638521720748802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" t="s">
         <v>29</v>
       </c>
-      <c r="C110" t="n">
-        <v>2.48904102467887</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="C110">
+        <v>2.4890410246788699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
       </c>
-      <c r="C111" t="n">
-        <v>0.998046611981724</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="C111">
+        <v>0.99804661198172395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
       </c>
-      <c r="C112" t="n">
-        <v>35.70530452658</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="C112">
+        <v>35.705304526580001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
       </c>
-      <c r="C113" t="n">
-        <v>5.444890438976</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="C113">
+        <v>5.4448904389759996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
       <c r="B114" t="s">
         <v>30</v>
       </c>
-      <c r="C114" t="n">
-        <v>9.99916003902629</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="C114">
+        <v>9.9991600390262896</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115" t="s">
         <v>30</v>
       </c>
-      <c r="C115" t="n">
-        <v>2.51698737323723</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="C115">
+        <v>2.5169873732372299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>30</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1.05967117039715</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" t="s">
         <v>31</v>
       </c>
-      <c r="C117" t="n">
-        <v>36.1708689261492</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="C117">
+        <v>36.170868926149197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
         <v>31</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>5.62006774946133</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
       <c r="B119" t="s">
         <v>31</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>10.0557372142805</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>2.56126719613138</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>31</v>
       </c>
-      <c r="C121" t="n">
-        <v>1.11234348344948</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="C121">
+        <v>1.1123434834494801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" t="s">
         <v>32</v>
       </c>
-      <c r="C122" t="n">
-        <v>36.3705476959089</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="C122">
+        <v>36.370547695908897</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>32</v>
       </c>
-      <c r="C123" t="n">
-        <v>6.04309861895467</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="C123">
+        <v>6.0430986189546703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
       <c r="B124" t="s">
         <v>32</v>
       </c>
-      <c r="C124" t="n">
-        <v>10.1368965268333</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="C124">
+        <v>10.136896526833301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2.56549165462663</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>32</v>
       </c>
-      <c r="C126" t="n">
-        <v>1.19209320678856</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="C126">
+        <v>1.1920932067885599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
       <c r="B127" t="s">
         <v>33</v>
       </c>
-      <c r="C127" t="n">
-        <v>36.3859481897665</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="C127">
+        <v>36.385948189766502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" t="s">
         <v>33</v>
       </c>
-      <c r="C128" t="n">
-        <v>6.2484473756</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="C128">
+        <v>6.2484473755999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
       <c r="B129" t="s">
         <v>33</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>10.1894129760287</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
       <c r="B130" t="s">
         <v>33</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2.58959347004699</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
       <c r="B131" t="s">
         <v>33</v>
       </c>
-      <c r="C131" t="n">
-        <v>1.15386683147162</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="C131">
+        <v>1.1538668314716201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
       <c r="B132" t="s">
         <v>34</v>
       </c>
-      <c r="C132" t="n">
-        <v>36.4655894610653</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="C132">
+        <v>36.465589461065299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>34</v>
       </c>
-      <c r="C133" t="n">
-        <v>5.69877314173867</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="C133">
+        <v>5.6987731417386698</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134" t="s">
         <v>34</v>
       </c>
-      <c r="C134" t="n">
-        <v>10.2315332243296</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="C134">
+        <v>10.231533224329601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" t="s">
         <v>34</v>
       </c>
-      <c r="C135" t="n">
-        <v>2.61391739193085</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="C135">
+        <v>2.6139173919308498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>34</v>
       </c>
-      <c r="C136" t="n">
-        <v>1.20861676001377</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="C136">
+        <v>1.2086167600137701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137" t="s">
         <v>35</v>
       </c>
-      <c r="C137" t="n">
-        <v>36.9355932676273</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="C137">
+        <v>36.935593267627297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>35</v>
       </c>
-      <c r="C138" t="n">
-        <v>5.573991504624</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="C138">
+        <v>5.5739915046239998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
       <c r="B139" t="s">
         <v>35</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>10.3727142481189</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>35</v>
       </c>
-      <c r="C140" t="n">
-        <v>2.6256868631308</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="C140">
+        <v>2.6256868631308001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>35</v>
       </c>
-      <c r="C141" t="n">
-        <v>1.27784706057641</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="C141">
+        <v>1.2778470605764101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
       <c r="B142" t="s">
         <v>36</v>
       </c>
-      <c r="C142" t="n">
-        <v>37.7161806699703</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="C142">
+        <v>37.716180669970299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" t="s">
         <v>36</v>
       </c>
-      <c r="C143" t="n">
-        <v>5.69026309869867</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="C143">
+        <v>5.6902630986986704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
       </c>
-      <c r="C144" t="n">
-        <v>10.4542093297495</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="C144">
+        <v>10.454209329749499</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
       <c r="B145" t="s">
         <v>36</v>
       </c>
-      <c r="C145" t="n">
-        <v>2.62698499662995</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="C145">
+        <v>2.6269849966299499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.34470422904084</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
       </c>
-      <c r="C147" t="n">
-        <v>37.9113691280531</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="C147">
+        <v>37.911369128053103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
       </c>
-      <c r="C148" t="n">
-        <v>6.6050388476</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="C148">
+        <v>6.6050388476000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
       <c r="B149" t="s">
         <v>37</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>10.5651795494206</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
       </c>
-      <c r="C150" t="n">
-        <v>2.65875327649005</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="C150">
+        <v>2.6587532764900499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
       <c r="B151" t="s">
         <v>37</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1.35028402604853</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2209,54 +2226,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1990</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>38</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>42</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2010</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2267,241 +2294,243 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1990</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1990</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1990</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1990</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1990</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>59</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2000</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2000</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2000</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2000</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2000</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>61</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2010</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2010</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2010</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>65</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2019</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2019</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>11</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2527,151 +2556,153 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>37.9113691280531</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>37.911369128053103</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>37.9113691280531</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.03290953024425</v>
-      </c>
-      <c r="F2" t="n">
-        <v>34.8784595978089</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40.9442786582974</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59.0906248276123</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>37.911369128053103</v>
+      </c>
+      <c r="E2">
+        <v>3.0329095302442499</v>
+      </c>
+      <c r="F2">
+        <v>34.878459597808899</v>
+      </c>
+      <c r="G2">
+        <v>40.944278658297399</v>
+      </c>
+      <c r="H2">
+        <v>59.090624827612302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>6.6050388476</v>
-      </c>
-      <c r="C3" t="n">
-        <v>37.9113691280531</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.5164079756531</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.62352719332</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39.8928807823331</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49.1399351689731</v>
-      </c>
-      <c r="H3" t="n">
-        <v>59.0906248276123</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>6.6050388476000004</v>
+      </c>
+      <c r="C3">
+        <v>37.911369128053103</v>
+      </c>
+      <c r="D3">
+        <v>44.516407975653102</v>
+      </c>
+      <c r="E3">
+        <v>4.6235271933200002</v>
+      </c>
+      <c r="F3">
+        <v>39.892880782333101</v>
+      </c>
+      <c r="G3">
+        <v>49.139935168973103</v>
+      </c>
+      <c r="H3">
+        <v>59.090624827612302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.5651795494206</v>
       </c>
-      <c r="C4" t="n">
-        <v>44.5164079756531</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55.0815875250737</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.16955386482619</v>
-      </c>
-      <c r="F4" t="n">
-        <v>51.9120336602476</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>44.516407975653102</v>
+      </c>
+      <c r="D4">
+        <v>55.081587525073701</v>
+      </c>
+      <c r="E4">
+        <v>3.1695538648261898</v>
+      </c>
+      <c r="F4">
+        <v>51.912033660247602</v>
+      </c>
+      <c r="G4">
         <v>58.2511413898999</v>
       </c>
-      <c r="H4" t="n">
-        <v>59.0906248276123</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="H4">
+        <v>59.090624827612302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.65875327649005</v>
-      </c>
-      <c r="C5" t="n">
-        <v>55.0815875250737</v>
-      </c>
-      <c r="D5" t="n">
-        <v>57.7403408015638</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.59525196589403</v>
-      </c>
-      <c r="F5" t="n">
-        <v>56.1450888356698</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59.3355927674578</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59.0906248276123</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>2.6587532764900499</v>
+      </c>
+      <c r="C5">
+        <v>55.081587525073701</v>
+      </c>
+      <c r="D5">
+        <v>57.740340801563804</v>
+      </c>
+      <c r="E5">
+        <v>1.5952519658940301</v>
+      </c>
+      <c r="F5">
+        <v>56.145088835669803</v>
+      </c>
+      <c r="G5">
+        <v>59.335592767457797</v>
+      </c>
+      <c r="H5">
+        <v>59.090624827612302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.35028402604853</v>
       </c>
-      <c r="C6" t="n">
-        <v>57.7403408015638</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59.0906248276123</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.405085207814559</v>
-      </c>
-      <c r="F6" t="n">
-        <v>58.6855396197978</v>
-      </c>
-      <c r="G6" t="n">
-        <v>59.4957100354269</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59.0906248276123</v>
+      <c r="C6">
+        <v>57.740340801563804</v>
+      </c>
+      <c r="D6">
+        <v>59.090624827612302</v>
+      </c>
+      <c r="E6">
+        <v>0.40508520781455898</v>
+      </c>
+      <c r="F6">
+        <v>58.685539619797801</v>
+      </c>
+      <c r="G6">
+        <v>59.495710035426903</v>
+      </c>
+      <c r="H6">
+        <v>59.090624827612302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2688,106 +2719,106 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>37.9113691280531</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.58259359890381</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.5080312287085</v>
-      </c>
-      <c r="E2" t="n">
-        <v>65.6732184265161</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>37.911369128053103</v>
+      </c>
+      <c r="C2">
+        <v>6.5825935989038102</v>
+      </c>
+      <c r="D2">
+        <v>52.508031228708496</v>
+      </c>
+      <c r="E2">
+        <v>65.673218426516101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10.5651795494206</v>
       </c>
-      <c r="C3" t="n">
-        <v>6.58259359890381</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.5080312287085</v>
-      </c>
-      <c r="E3" t="n">
-        <v>65.6732184265161</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>6.5825935989038102</v>
+      </c>
+      <c r="D3">
+        <v>52.508031228708496</v>
+      </c>
+      <c r="E3">
+        <v>65.673218426516101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.65875327649005</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.58259359890381</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.5080312287085</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65.6732184265161</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>2.6587532764900499</v>
+      </c>
+      <c r="C4">
+        <v>6.5825935989038102</v>
+      </c>
+      <c r="D4">
+        <v>52.508031228708496</v>
+      </c>
+      <c r="E4">
+        <v>65.673218426516101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.35028402604853</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.58259359890381</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.5080312287085</v>
-      </c>
-      <c r="E5" t="n">
-        <v>65.6732184265161</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>6.5825935989038102</v>
+      </c>
+      <c r="D5">
+        <v>52.508031228708496</v>
+      </c>
+      <c r="E5">
+        <v>65.673218426516101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>6.6050388476</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.58259359890381</v>
-      </c>
-      <c r="D6" t="n">
-        <v>52.5080312287085</v>
-      </c>
-      <c r="E6" t="n">
-        <v>65.6732184265161</v>
+      <c r="B6">
+        <v>6.6050388476000004</v>
+      </c>
+      <c r="C6">
+        <v>6.5825935989038102</v>
+      </c>
+      <c r="D6">
+        <v>52.508031228708496</v>
+      </c>
+      <c r="E6">
+        <v>65.673218426516101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2804,2571 +2835,2573 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1990</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>108</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>92</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1990</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>130</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1990</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>160</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1991</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>100.584845218314</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>108.631632835779</v>
       </c>
-      <c r="E5" t="n">
-        <v>92.5380576008486</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E5">
+        <v>92.538057600848603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1991</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>99.3783699609292</v>
-      </c>
-      <c r="D6" t="n">
-        <v>129.191880949208</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69.5648589726504</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>99.378369960929206</v>
+      </c>
+      <c r="D6">
+        <v>129.19188094920801</v>
+      </c>
+      <c r="E6">
+        <v>69.564858972650399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1991</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>99.6495667276865</v>
-      </c>
-      <c r="D7" t="n">
-        <v>159.439306764298</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39.8598266910746</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>99.649566727686505</v>
+      </c>
+      <c r="D7">
+        <v>159.43930676429801</v>
+      </c>
+      <c r="E7">
+        <v>39.859826691074602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1992</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>100.305518888538</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>108.329960399621</v>
       </c>
-      <c r="E8" t="n">
-        <v>92.2810773774552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8">
+        <v>92.281077377455205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>99.3938154849664</v>
-      </c>
-      <c r="D9" t="n">
-        <v>129.211960130456</v>
-      </c>
-      <c r="E9" t="n">
-        <v>69.5756708394765</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>99.393815484966396</v>
+      </c>
+      <c r="D9">
+        <v>129.21196013045599</v>
+      </c>
+      <c r="E9">
+        <v>69.575670839476501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1992</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>100.462650462977</v>
       </c>
-      <c r="D10" t="n">
-        <v>160.740240740764</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40.185060185191</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="D10">
+        <v>160.74024074076399</v>
+      </c>
+      <c r="E10">
+        <v>40.185060185190999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1993</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>100.736189330089</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>108.795084476496</v>
       </c>
-      <c r="E11" t="n">
-        <v>92.6772941836821</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E11">
+        <v>92.677294183682093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1993</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>99.2318119354956</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>129.001355516144</v>
       </c>
-      <c r="E12" t="n">
-        <v>69.462268354847</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="E12">
+        <v>69.462268354846998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1993</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>100.2426778106</v>
       </c>
-      <c r="D13" t="n">
-        <v>160.38828449696</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40.0970711242399</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D13">
+        <v>160.38828449696001</v>
+      </c>
+      <c r="E13">
+        <v>40.097071124239903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1994</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>101.787576874281</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>109.930583024223</v>
       </c>
-      <c r="E14" t="n">
-        <v>93.6445707243384</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="E14">
+        <v>93.644570724338394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1994</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>99.8984191401705</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129.867944882222</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="C15">
+        <v>99.898419140170503</v>
+      </c>
+      <c r="D15">
+        <v>129.86794488222199</v>
+      </c>
+      <c r="E15">
         <v>69.9288933981193</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1994</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>102.458218839654</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>102.45821883965399</v>
+      </c>
+      <c r="D16">
         <v>163.933150143446</v>
       </c>
-      <c r="E16" t="n">
-        <v>40.9832875358616</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="E16">
+        <v>40.983287535861599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1995</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>104.679430169057</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>113.053784582582</v>
       </c>
-      <c r="E17" t="n">
-        <v>96.3050757555326</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="E17">
+        <v>96.305075755532599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1995</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
-        <v>101.220047730783</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>101.22004773078299</v>
+      </c>
+      <c r="D18">
         <v>131.586062050018</v>
       </c>
-      <c r="E18" t="n">
-        <v>70.8540334115483</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="E18">
+        <v>70.854033411548301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1995</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>105.645873544962</v>
       </c>
-      <c r="D19" t="n">
-        <v>169.03339767194</v>
-      </c>
-      <c r="E19" t="n">
-        <v>42.258349417985</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="D19">
+        <v>169.03339767194001</v>
+      </c>
+      <c r="E19">
+        <v>42.258349417985002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1996</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>106.648535278064</v>
       </c>
-      <c r="D20" t="n">
-        <v>115.18041810031</v>
-      </c>
-      <c r="E20" t="n">
-        <v>98.1166524558192</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="D20">
+        <v>115.18041810031001</v>
+      </c>
+      <c r="E20">
+        <v>98.116652455819207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1996</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>102.318768162499</v>
       </c>
-      <c r="D21" t="n">
-        <v>133.014398611249</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>133.01439861124899</v>
+      </c>
+      <c r="E21">
         <v>71.6231377137495</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1996</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>108.032145899981</v>
       </c>
-      <c r="D22" t="n">
-        <v>172.85143343997</v>
-      </c>
-      <c r="E22" t="n">
-        <v>43.2128583599926</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="D22">
+        <v>172.85143343997001</v>
+      </c>
+      <c r="E22">
+        <v>43.212858359992602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1997</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>108.63140412743</v>
       </c>
-      <c r="D23" t="n">
-        <v>117.321916457625</v>
-      </c>
-      <c r="E23" t="n">
-        <v>99.940891797236</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="D23">
+        <v>117.32191645762499</v>
+      </c>
+      <c r="E23">
+        <v>99.940891797236006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1997</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>102.222602850794</v>
       </c>
-      <c r="D24" t="n">
-        <v>132.889383706032</v>
-      </c>
-      <c r="E24" t="n">
-        <v>71.5558219955557</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="D24">
+        <v>132.88938370603199</v>
+      </c>
+      <c r="E24">
+        <v>71.555821995555704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1997</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>107.528386023705</v>
       </c>
-      <c r="D25" t="n">
-        <v>172.045417637927</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43.0113544094819</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="D25">
+        <v>172.04541763792699</v>
+      </c>
+      <c r="E25">
+        <v>43.011354409481903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1998</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>109.224985635959</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>117.962984486835</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>100.486986785082</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1998</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>101.150370886277</v>
       </c>
-      <c r="D27" t="n">
-        <v>131.49548215216</v>
-      </c>
-      <c r="E27" t="n">
-        <v>70.8052596203938</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="D27">
+        <v>131.49548215216001</v>
+      </c>
+      <c r="E27">
+        <v>70.805259620393798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>1998</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>106.678600334187</v>
       </c>
-      <c r="D28" t="n">
-        <v>170.6857605347</v>
-      </c>
-      <c r="E28" t="n">
-        <v>42.6714401336749</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="D28">
+        <v>170.68576053469999</v>
+      </c>
+      <c r="E28">
+        <v>42.671440133674899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1999</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>109.999455450813</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>118.799411886878</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>101.199499014748</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1999</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>101.568845821745</v>
       </c>
-      <c r="D30" t="n">
-        <v>132.039499568269</v>
-      </c>
-      <c r="E30" t="n">
-        <v>71.0981920752218</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="D30">
+        <v>132.03949956826901</v>
+      </c>
+      <c r="E30">
+        <v>71.098192075221803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1999</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>107.073303454298</v>
       </c>
-      <c r="D31" t="n">
-        <v>171.317285526876</v>
-      </c>
-      <c r="E31" t="n">
-        <v>42.829321381719</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="D31">
+        <v>171.31728552687599</v>
+      </c>
+      <c r="E31">
+        <v>42.829321381718998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2000</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>113.725148277648</v>
       </c>
-      <c r="D32" t="n">
-        <v>122.82316013986</v>
-      </c>
-      <c r="E32" t="n">
-        <v>104.627136415437</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="D32">
+        <v>122.82316013985999</v>
+      </c>
+      <c r="E32">
+        <v>104.62713641543699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2000</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>102.993298583582</v>
       </c>
-      <c r="D33" t="n">
-        <v>133.891288158656</v>
-      </c>
-      <c r="E33" t="n">
-        <v>72.0953090085072</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="D33">
+        <v>133.89128815865601</v>
+      </c>
+      <c r="E33">
+        <v>72.095309008507201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2000</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>107.892735987566</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>172.628377580105</v>
       </c>
-      <c r="E34" t="n">
-        <v>43.1570943950263</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="E34">
+        <v>43.157094395026299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2001</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>115.15190174593</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>124.364053885605</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>105.939749606256</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2001</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>103.146432129483</v>
       </c>
-      <c r="D36" t="n">
-        <v>134.090361768328</v>
-      </c>
-      <c r="E36" t="n">
-        <v>72.2025024906379</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="D36">
+        <v>134.09036176832799</v>
+      </c>
+      <c r="E36">
+        <v>72.202502490637897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2001</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>108.295251995705</v>
       </c>
-      <c r="D37" t="n">
-        <v>173.272403193128</v>
-      </c>
-      <c r="E37" t="n">
-        <v>43.3181007982821</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="D37">
+        <v>173.27240319312801</v>
+      </c>
+      <c r="E37">
+        <v>43.318100798282103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2002</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="n">
-        <v>116.748311475282</v>
-      </c>
-      <c r="D38" t="n">
-        <v>126.088176393305</v>
-      </c>
-      <c r="E38" t="n">
-        <v>107.40844655726</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="C38">
+        <v>116.74831147528199</v>
+      </c>
+      <c r="D38">
+        <v>126.08817639330501</v>
+      </c>
+      <c r="E38">
+        <v>107.40844655726001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2002</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>103.155894996811</v>
       </c>
-      <c r="D39" t="n">
-        <v>134.102663495855</v>
-      </c>
-      <c r="E39" t="n">
-        <v>72.209126497768</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="D39">
+        <v>134.10266349585501</v>
+      </c>
+      <c r="E39">
+        <v>72.209126497767997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2002</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" t="n">
-        <v>109.544454359902</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>109.54445435990201</v>
+      </c>
+      <c r="D40">
         <v>175.271126975843</v>
       </c>
-      <c r="E40" t="n">
-        <v>43.8177817439607</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="E40">
+        <v>43.817781743960701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2003</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>122.31463620225</v>
       </c>
-      <c r="D41" t="n">
-        <v>132.09980709843</v>
-      </c>
-      <c r="E41" t="n">
-        <v>112.52946530607</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="D41">
+        <v>132.09980709843001</v>
+      </c>
+      <c r="E41">
+        <v>112.52946530606999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2003</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>106.252347807712</v>
       </c>
-      <c r="D42" t="n">
-        <v>138.128052150026</v>
-      </c>
-      <c r="E42" t="n">
-        <v>74.3766434653986</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="D42">
+        <v>138.12805215002601</v>
+      </c>
+      <c r="E42">
+        <v>74.376643465398601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2003</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>111.124191016304</v>
       </c>
-      <c r="D43" t="n">
-        <v>177.798705626087</v>
-      </c>
-      <c r="E43" t="n">
-        <v>44.4496764065218</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="D43">
+        <v>177.79870562608701</v>
+      </c>
+      <c r="E43">
+        <v>44.449676406521803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2004</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="n">
-        <v>128.00377756329</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>128.00377756328999</v>
+      </c>
+      <c r="D44">
         <v>138.244079768353</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>117.763475358227</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>2004</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>108.64684888597</v>
       </c>
-      <c r="D45" t="n">
-        <v>141.240903551761</v>
-      </c>
-      <c r="E45" t="n">
-        <v>76.0527942201789</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="D45">
+        <v>141.24090355176099</v>
+      </c>
+      <c r="E45">
+        <v>76.052794220178896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2004</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46" t="n">
-        <v>114.697581174003</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>114.69758117400301</v>
+      </c>
+      <c r="D46">
         <v>183.516129878405</v>
       </c>
-      <c r="E46" t="n">
-        <v>45.8790324696012</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="E46">
+        <v>45.879032469601199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>2005</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>132.744549847293</v>
       </c>
-      <c r="D47" t="n">
-        <v>143.364113835076</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>143.36411383507601</v>
+      </c>
+      <c r="E47">
         <v>122.124985859509</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>2005</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>110.804979865503</v>
       </c>
-      <c r="D48" t="n">
-        <v>144.046473825154</v>
-      </c>
-      <c r="E48" t="n">
-        <v>77.5634859058522</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="D48">
+        <v>144.04647382515401</v>
+      </c>
+      <c r="E48">
+        <v>77.563485905852204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>2005</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" t="n">
-        <v>115.870169580215</v>
-      </c>
-      <c r="D49" t="n">
-        <v>185.392271328344</v>
-      </c>
-      <c r="E49" t="n">
-        <v>46.348067832086</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="C49">
+        <v>115.87016958021501</v>
+      </c>
+      <c r="D49">
+        <v>185.39227132834401</v>
+      </c>
+      <c r="E49">
+        <v>46.348067832086002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>2006</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" t="n">
-        <v>137.278824303404</v>
-      </c>
-      <c r="D50" t="n">
-        <v>148.261130247677</v>
-      </c>
-      <c r="E50" t="n">
-        <v>126.296518359132</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C50">
+        <v>137.27882430340401</v>
+      </c>
+      <c r="D50">
+        <v>148.26113024767699</v>
+      </c>
+      <c r="E50">
+        <v>126.29651835913199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2006</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" t="n">
-        <v>112.939803791512</v>
-      </c>
-      <c r="D51" t="n">
-        <v>146.821744928966</v>
-      </c>
-      <c r="E51" t="n">
-        <v>79.0578626540584</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="C51">
+        <v>112.93980379151201</v>
+      </c>
+      <c r="D51">
+        <v>146.82174492896601</v>
+      </c>
+      <c r="E51">
+        <v>79.057862654058397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2006</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>117.969742296444</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>188.75158767431</v>
       </c>
-      <c r="E52" t="n">
-        <v>47.1878969185774</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="E52">
+        <v>47.187896918577401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2007</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="n">
-        <v>142.582713159762</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53">
+        <v>142.58271315976199</v>
+      </c>
+      <c r="D53">
         <v>153.989330212543</v>
       </c>
-      <c r="E53" t="n">
-        <v>131.176096106981</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="E53">
+        <v>131.17609610698099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2007</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="n">
-        <v>114.010736873668</v>
-      </c>
-      <c r="D54" t="n">
-        <v>148.213957935768</v>
-      </c>
-      <c r="E54" t="n">
-        <v>79.8075158115674</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="C54">
+        <v>114.01073687366799</v>
+      </c>
+      <c r="D54">
+        <v>148.21395793576801</v>
+      </c>
+      <c r="E54">
+        <v>79.807515811567399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>2007</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>120.261489454425</v>
       </c>
-      <c r="D55" t="n">
-        <v>192.418383127079</v>
-      </c>
-      <c r="E55" t="n">
-        <v>48.1045957817698</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+      <c r="D55">
+        <v>192.41838312707901</v>
+      </c>
+      <c r="E55">
+        <v>48.104595781769802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2008</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="n">
-        <v>143.530740608227</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56">
+        <v>143.53074060822701</v>
+      </c>
+      <c r="D56">
         <v>155.013199856885</v>
       </c>
-      <c r="E56" t="n">
-        <v>132.048281359569</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="E56">
+        <v>132.04828135956899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>2008</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>115.952030139005</v>
       </c>
-      <c r="D57" t="n">
-        <v>150.737639180707</v>
-      </c>
-      <c r="E57" t="n">
-        <v>81.1664210973038</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="D57">
+        <v>150.73763918070699</v>
+      </c>
+      <c r="E57">
+        <v>81.166421097303797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>2008</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>119.096753522328</v>
       </c>
-      <c r="D58" t="n">
-        <v>190.554805635725</v>
-      </c>
-      <c r="E58" t="n">
-        <v>47.6387014089312</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="D58">
+        <v>190.55480563572499</v>
+      </c>
+      <c r="E58">
+        <v>47.638701408931198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>2009</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" t="n">
-        <v>142.029579903369</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59">
+        <v>142.02957990336901</v>
+      </c>
+      <c r="D59">
         <v>153.391946295639</v>
       </c>
-      <c r="E59" t="n">
-        <v>130.6672135111</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="E59">
+        <v>130.66721351109999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>2009</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>115.718071287271</v>
       </c>
-      <c r="D60" t="n">
-        <v>150.433492673452</v>
-      </c>
-      <c r="E60" t="n">
-        <v>81.0026499010894</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="D60">
+        <v>150.43349267345201</v>
+      </c>
+      <c r="E60">
+        <v>81.002649901089399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>2009</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" t="n">
-        <v>119.48320611952</v>
-      </c>
-      <c r="D61" t="n">
-        <v>191.173129791232</v>
-      </c>
-      <c r="E61" t="n">
-        <v>47.793282447808</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="C61">
+        <v>119.48320611952001</v>
+      </c>
+      <c r="D61">
+        <v>191.17312979123199</v>
+      </c>
+      <c r="E61">
+        <v>47.793282447807997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>2010</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62" t="n">
-        <v>150.391164328734</v>
-      </c>
-      <c r="D62" t="n">
-        <v>162.422457475032</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="C62">
+        <v>150.39116432873399</v>
+      </c>
+      <c r="D62">
+        <v>162.42245747503199</v>
+      </c>
+      <c r="E62">
         <v>138.359871182435</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>2010</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>117.742061880188</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>153.064680444245</v>
       </c>
-      <c r="E63" t="n">
-        <v>82.4194433161317</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="E63">
+        <v>82.419443316131705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>2010</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>120.796509892033</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>193.274415827252</v>
       </c>
-      <c r="E64" t="n">
-        <v>48.3186039568131</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+      <c r="E64">
+        <v>48.318603956813099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>2011</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65" t="n">
-        <v>154.812984291005</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65">
+        <v>154.81298429100499</v>
+      </c>
+      <c r="D65">
         <v>167.198023034285</v>
       </c>
-      <c r="E65" t="n">
-        <v>142.427945547725</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
+      <c r="E65">
+        <v>142.42794554772499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>2011</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>120.08684644021</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>156.112900372273</v>
       </c>
-      <c r="E66" t="n">
-        <v>84.0607925081471</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+      <c r="E66">
+        <v>84.060792508147102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>2011</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>124.053395256282</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>198.485432410052</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>49.6213581025129</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>2012</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>157.09912486648</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>169.667054855798</v>
       </c>
-      <c r="E68" t="n">
-        <v>144.531194877162</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+      <c r="E68">
+        <v>144.53119487716199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>2012</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>121.71315877926</v>
       </c>
-      <c r="D69" t="n">
-        <v>158.227106413037</v>
-      </c>
-      <c r="E69" t="n">
-        <v>85.1992111454817</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+      <c r="D69">
+        <v>158.22710641303701</v>
+      </c>
+      <c r="E69">
+        <v>85.199211145481698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>2012</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>125.446236671633</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>200.713978674613</v>
       </c>
-      <c r="E70" t="n">
-        <v>50.1784946686531</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+      <c r="E70">
+        <v>50.178494668653101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>2013</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
-      <c r="C71" t="n">
-        <v>159.147553264195</v>
-      </c>
-      <c r="D71" t="n">
-        <v>171.879357525331</v>
-      </c>
-      <c r="E71" t="n">
-        <v>146.415749003059</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
+      <c r="C71">
+        <v>159.14755326419501</v>
+      </c>
+      <c r="D71">
+        <v>171.87935752533099</v>
+      </c>
+      <c r="E71">
+        <v>146.41574900305901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>2013</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>122.441706438054</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>159.17421836947</v>
       </c>
-      <c r="E72" t="n">
-        <v>85.7091945066375</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+      <c r="E72">
+        <v>85.709194506637502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>2013</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73" t="n">
-        <v>127.653135761243</v>
-      </c>
-      <c r="D73" t="n">
-        <v>204.245017217989</v>
-      </c>
-      <c r="E73" t="n">
-        <v>51.0612543044974</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+      <c r="C73">
+        <v>127.65313576124301</v>
+      </c>
+      <c r="D73">
+        <v>204.24501721798899</v>
+      </c>
+      <c r="E73">
+        <v>51.061254304497403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>2014</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>160.026116278839</v>
       </c>
-      <c r="D74" t="n">
-        <v>172.828205581147</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="D74">
+        <v>172.82820558114699</v>
+      </c>
+      <c r="E74">
         <v>147.224026976532</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>2014</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>123.426462055135</v>
       </c>
-      <c r="D75" t="n">
-        <v>160.454400671675</v>
-      </c>
-      <c r="E75" t="n">
-        <v>86.3985234385945</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="D75">
+        <v>160.45440067167499</v>
+      </c>
+      <c r="E75">
+        <v>86.398523438594495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>2014</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>127.86368207778</v>
       </c>
-      <c r="D76" t="n">
-        <v>204.581891324448</v>
-      </c>
-      <c r="E76" t="n">
-        <v>51.145472831112</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="D76">
+        <v>204.58189132444801</v>
+      </c>
+      <c r="E76">
+        <v>51.145472831112002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>2015</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>160.093876633767</v>
       </c>
-      <c r="D77" t="n">
-        <v>172.901386764469</v>
-      </c>
-      <c r="E77" t="n">
-        <v>147.286366503066</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="D77">
+        <v>172.90138676446901</v>
+      </c>
+      <c r="E77">
+        <v>147.28636650306601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>2015</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>124.100081987417</v>
       </c>
-      <c r="D78" t="n">
-        <v>161.330106583642</v>
-      </c>
-      <c r="E78" t="n">
-        <v>86.8700573911918</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="D78">
+        <v>161.33010658364199</v>
+      </c>
+      <c r="E78">
+        <v>86.870057391191807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>2015</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>129.064912593907</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>206.503860150251</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>51.6259650375628</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>2016</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>160.444288825743</v>
       </c>
-      <c r="D80" t="n">
-        <v>173.279831931802</v>
-      </c>
-      <c r="E80" t="n">
-        <v>147.608745719683</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="D80">
+        <v>173.27983193180199</v>
+      </c>
+      <c r="E80">
+        <v>147.60874571968299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>2016</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" t="n">
-        <v>124.662422750051</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81">
+        <v>124.66242275005099</v>
+      </c>
+      <c r="D81">
         <v>162.061149575066</v>
       </c>
-      <c r="E81" t="n">
-        <v>87.2636959250356</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="E81">
+        <v>87.263695925035606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>2016</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>130.277212859641</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>208.443540575426</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>52.1108851438565</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>2017</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>162.512250090149</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>175.513230097361</v>
       </c>
-      <c r="E83" t="n">
-        <v>149.511270082937</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+      <c r="E83">
+        <v>149.51127008293699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>2017</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>126.356091988598</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>164.262919585177</v>
       </c>
-      <c r="E84" t="n">
-        <v>88.4492643920184</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="E84">
+        <v>88.449264392018407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>2017</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="C85" t="n">
-        <v>130.863801368327</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85">
+        <v>130.86380136832699</v>
+      </c>
+      <c r="D85">
         <v>209.382082189323</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>52.3455205473308</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>2018</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" t="n">
-        <v>165.946742511257</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86">
+        <v>165.94674251125701</v>
+      </c>
+      <c r="D86">
         <v>179.222481912158</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>152.671003110356</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>2018</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>127.358087495601</v>
       </c>
-      <c r="D87" t="n">
-        <v>165.565513744282</v>
-      </c>
-      <c r="E87" t="n">
-        <v>89.1506612469209</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="D87">
+        <v>165.56551374428199</v>
+      </c>
+      <c r="E87">
+        <v>89.150661246920905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>2018</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
-      <c r="C88" t="n">
-        <v>130.928500128399</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88">
+        <v>130.92850012839901</v>
+      </c>
+      <c r="D88">
         <v>209.485600205438</v>
       </c>
-      <c r="E88" t="n">
-        <v>52.3714000513596</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="E88">
+        <v>52.371400051359601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>2019</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="n">
-        <v>166.805548684609</v>
-      </c>
-      <c r="D89" t="n">
-        <v>180.149992579378</v>
-      </c>
-      <c r="E89" t="n">
-        <v>153.46110478984</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+      <c r="C89">
+        <v>166.80554868460899</v>
+      </c>
+      <c r="D89">
+        <v>180.14999257937799</v>
+      </c>
+      <c r="E89">
+        <v>153.46110478983999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>2019</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90" t="n">
-        <v>128.683030915669</v>
-      </c>
-      <c r="D90" t="n">
-        <v>167.28794019037</v>
-      </c>
-      <c r="E90" t="n">
-        <v>90.0781216409684</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+      <c r="C90">
+        <v>128.68303091566901</v>
+      </c>
+      <c r="D90">
+        <v>167.28794019036999</v>
+      </c>
+      <c r="E90">
+        <v>90.078121640968405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>2019</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" t="n">
-        <v>132.511825971173</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91">
+        <v>132.51182597117301</v>
+      </c>
+      <c r="D91">
         <v>212.018921553876</v>
       </c>
-      <c r="E91" t="n">
-        <v>53.0047303884691</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+      <c r="E91">
+        <v>53.004730388469099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>1990</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>100</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>170</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>30</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>1991</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
-      <c r="C93" t="n">
-        <v>99.1540322046291</v>
-      </c>
-      <c r="D93" t="n">
-        <v>168.561854747869</v>
-      </c>
-      <c r="E93" t="n">
-        <v>29.7462096613887</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="C93">
+        <v>99.154032204629104</v>
+      </c>
+      <c r="D93">
+        <v>168.56185474786901</v>
+      </c>
+      <c r="E93">
+        <v>29.746209661388701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>1992</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
-      <c r="C94" t="n">
-        <v>99.3087811209443</v>
-      </c>
-      <c r="D94" t="n">
-        <v>168.824927905605</v>
-      </c>
-      <c r="E94" t="n">
-        <v>29.7926343362833</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+      <c r="C94">
+        <v>99.308781120944303</v>
+      </c>
+      <c r="D94">
+        <v>168.82492790560499</v>
+      </c>
+      <c r="E94">
+        <v>29.792634336283299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>1993</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95" t="n">
-        <v>99.4217179984177</v>
-      </c>
-      <c r="D95" t="n">
-        <v>169.01692059731</v>
-      </c>
-      <c r="E95" t="n">
-        <v>29.8265153995253</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+      <c r="C95">
+        <v>99.421717998417705</v>
+      </c>
+      <c r="D95">
+        <v>169.01692059730999</v>
+      </c>
+      <c r="E95">
+        <v>29.826515399525299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>1994</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
-      <c r="C96" t="n">
-        <v>98.9563341923901</v>
-      </c>
-      <c r="D96" t="n">
-        <v>168.225768127063</v>
-      </c>
-      <c r="E96" t="n">
-        <v>29.686900257717</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+      <c r="C96">
+        <v>98.956334192390102</v>
+      </c>
+      <c r="D96">
+        <v>168.22576812706299</v>
+      </c>
+      <c r="E96">
+        <v>29.686900257716999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>1995</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
-      <c r="C97" t="n">
-        <v>98.2465500037712</v>
-      </c>
-      <c r="D97" t="n">
-        <v>167.019135006411</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="C97">
+        <v>98.246550003771205</v>
+      </c>
+      <c r="D97">
+        <v>167.01913500641101</v>
+      </c>
+      <c r="E97">
         <v>29.4739650011314</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>1996</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
-      <c r="C98" t="n">
-        <v>97.0002993355015</v>
-      </c>
-      <c r="D98" t="n">
-        <v>164.900508870353</v>
-      </c>
-      <c r="E98" t="n">
-        <v>29.1000898006505</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="C98">
+        <v>97.000299335501495</v>
+      </c>
+      <c r="D98">
+        <v>164.90050887035301</v>
+      </c>
+      <c r="E98">
+        <v>29.100089800650501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>1997</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
-      <c r="C99" t="n">
-        <v>131.616187507351</v>
-      </c>
-      <c r="D99" t="n">
-        <v>223.747518762497</v>
-      </c>
-      <c r="E99" t="n">
-        <v>39.4848562522054</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="C99">
+        <v>131.61618750735099</v>
+      </c>
+      <c r="D99">
+        <v>223.74751876249701</v>
+      </c>
+      <c r="E99">
+        <v>39.484856252205397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>1998</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
-      <c r="C100" t="n">
-        <v>91.721277950189</v>
-      </c>
-      <c r="D100" t="n">
-        <v>155.926172515321</v>
-      </c>
-      <c r="E100" t="n">
-        <v>27.5163833850567</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+      <c r="C100">
+        <v>91.721277950189005</v>
+      </c>
+      <c r="D100">
+        <v>155.92617251532101</v>
+      </c>
+      <c r="E100">
+        <v>27.516383385056699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>1999</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
-      <c r="C101" t="n">
-        <v>90.5506785918327</v>
-      </c>
-      <c r="D101" t="n">
-        <v>153.936153606116</v>
-      </c>
-      <c r="E101" t="n">
+      <c r="C101">
+        <v>90.550678591832707</v>
+      </c>
+      <c r="D101">
+        <v>153.93615360611599</v>
+      </c>
+      <c r="E101">
         <v>27.1652035775498</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>2000</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C102" t="n">
-        <v>101.456528300441</v>
-      </c>
-      <c r="D102" t="n">
-        <v>172.476098110749</v>
-      </c>
-      <c r="E102" t="n">
-        <v>30.4369584901322</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+      <c r="C102">
+        <v>101.45652830044099</v>
+      </c>
+      <c r="D102">
+        <v>172.47609811074901</v>
+      </c>
+      <c r="E102">
+        <v>30.436958490132199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>2001</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
-      <c r="C103" t="n">
-        <v>98.1269383245416</v>
-      </c>
-      <c r="D103" t="n">
-        <v>166.815795151721</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="C103">
+        <v>98.126938324541598</v>
+      </c>
+      <c r="D103">
+        <v>166.81579515172101</v>
+      </c>
+      <c r="E103">
         <v>29.4380814973625</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>2002</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>110.468454171665</v>
       </c>
-      <c r="D104" t="n">
-        <v>187.79637209183</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33.1405362514994</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+      <c r="D104">
+        <v>187.79637209182999</v>
+      </c>
+      <c r="E104">
+        <v>33.140536251499398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>2003</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>113.777131824241</v>
       </c>
-      <c r="D105" t="n">
-        <v>193.42112410121</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="D105">
+        <v>193.42112410121001</v>
+      </c>
+      <c r="E105">
         <v>34.1331395472723</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>2004</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
-      <c r="C106" t="n">
-        <v>111.400880126873</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="C106">
+        <v>111.40088012687301</v>
+      </c>
+      <c r="D106">
         <v>189.381496215684</v>
       </c>
-      <c r="E106" t="n">
-        <v>33.4202640380619</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+      <c r="E106">
+        <v>33.420264038061902</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>2005</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C107" t="n">
-        <v>104.321070563938</v>
-      </c>
-      <c r="D107" t="n">
-        <v>177.345819958695</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="C107">
+        <v>104.32107056393799</v>
+      </c>
+      <c r="D107">
+        <v>177.34581995869499</v>
+      </c>
+      <c r="E107">
         <v>31.2963211691815</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>2006</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>110.084901167236</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>187.144331984301</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>33.0254703501707</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>2007</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="C109" t="n">
-        <v>96.5251875788456</v>
-      </c>
-      <c r="D109" t="n">
+      <c r="C109">
+        <v>96.525187578845603</v>
+      </c>
+      <c r="D109">
         <v>164.092818884038</v>
       </c>
-      <c r="E109" t="n">
-        <v>28.9575562736537</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="E109">
+        <v>28.957556273653701</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>2008</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
-      <c r="C110" t="n">
-        <v>99.9192133649156</v>
-      </c>
-      <c r="D110" t="n">
-        <v>169.862662720356</v>
-      </c>
-      <c r="E110" t="n">
-        <v>29.9757640094747</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+      <c r="C110">
+        <v>99.919213364915606</v>
+      </c>
+      <c r="D110">
+        <v>169.86266272035601</v>
+      </c>
+      <c r="E110">
+        <v>29.975764009474702</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>2009</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>117.813688635248</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>200.283270679921</v>
       </c>
-      <c r="E111" t="n">
-        <v>35.3441065905743</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
+      <c r="E111">
+        <v>35.344106590574299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>2010</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>107.192670229424</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>182.227539390022</v>
       </c>
-      <c r="E112" t="n">
-        <v>32.1578010688273</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
+      <c r="E112">
+        <v>32.157801068827297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>2011</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>101.664931760542</v>
       </c>
-      <c r="D113" t="n">
-        <v>172.830383992921</v>
-      </c>
-      <c r="E113" t="n">
-        <v>30.4994795281626</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
+      <c r="D113">
+        <v>172.83038399292101</v>
+      </c>
+      <c r="E113">
+        <v>30.499479528162599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>2012</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
-      <c r="C114" t="n">
-        <v>109.35313757888</v>
-      </c>
-      <c r="D114" t="n">
+      <c r="C114">
+        <v>109.35313757887999</v>
+      </c>
+      <c r="D114">
         <v>185.900333884096</v>
       </c>
-      <c r="E114" t="n">
-        <v>32.8059412736641</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
+      <c r="E114">
+        <v>32.805941273664097</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>2013</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>112.871332985913</v>
       </c>
-      <c r="D115" t="n">
-        <v>191.881266076052</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="D115">
+        <v>191.88126607605199</v>
+      </c>
+      <c r="E115">
         <v>33.8613998957738</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>2014</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="n">
-        <v>121.36732631953</v>
-      </c>
-      <c r="D116" t="n">
-        <v>206.324454743201</v>
-      </c>
-      <c r="E116" t="n">
-        <v>36.4101978958591</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="C116">
+        <v>121.36732631952999</v>
+      </c>
+      <c r="D116">
+        <v>206.32445474320099</v>
+      </c>
+      <c r="E116">
+        <v>36.410197895859099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>2015</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>125.491473736041</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>213.335505351271</v>
       </c>
-      <c r="E117" t="n">
-        <v>37.6474421208125</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="E117">
+        <v>37.647442120812499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>2016</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>114.452022567524</v>
       </c>
-      <c r="D118" t="n">
-        <v>194.568438364791</v>
-      </c>
-      <c r="E118" t="n">
-        <v>34.3356067702572</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="D118">
+        <v>194.56843836479101</v>
+      </c>
+      <c r="E118">
+        <v>34.335606770257201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>2017</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>111.945954964576</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>190.308123439779</v>
       </c>
-      <c r="E119" t="n">
-        <v>33.5837864893728</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
+      <c r="E119">
+        <v>33.583786489372798</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>2018</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
-      <c r="C120" t="n">
-        <v>114.28111005463</v>
-      </c>
-      <c r="D120" t="n">
-        <v>194.277887092872</v>
-      </c>
-      <c r="E120" t="n">
-        <v>34.2843330163891</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
+      <c r="C120">
+        <v>114.28111005463001</v>
+      </c>
+      <c r="D120">
+        <v>194.27788709287199</v>
+      </c>
+      <c r="E120">
+        <v>34.284333016389098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>2019</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
-      <c r="C121" t="n">
-        <v>132.653123127173</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="C121">
+        <v>132.65312312717299</v>
+      </c>
+      <c r="D121">
         <v>225.510309316194</v>
       </c>
-      <c r="E121" t="n">
-        <v>39.795936938152</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="E121">
+        <v>39.795936938152003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>1990</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>100</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>130</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>70</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>1991</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" t="n">
-        <v>103.904129153847</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="C123">
+        <v>103.90412915384699</v>
+      </c>
+      <c r="D123">
         <v>135.075367900001</v>
       </c>
-      <c r="E123" t="n">
-        <v>72.7328904076927</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="E123">
+        <v>72.732890407692693</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>1992</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>105.77779105851</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>137.511128376063</v>
       </c>
-      <c r="E124" t="n">
-        <v>74.0444537409568</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="E124">
+        <v>74.044453740956797</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>1993</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>109.122046342498</v>
       </c>
-      <c r="D125" t="n">
-        <v>141.858660245247</v>
-      </c>
-      <c r="E125" t="n">
-        <v>76.3854324397486</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="D125">
+        <v>141.85866024524699</v>
+      </c>
+      <c r="E125">
+        <v>76.385432439748598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>1994</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>117.893334833331</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>153.26133528333</v>
       </c>
-      <c r="E126" t="n">
-        <v>82.5253343833316</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="E126">
+        <v>82.525334383331597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>1995</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="n">
-        <v>130.668238600512</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127">
+        <v>130.66823860051201</v>
+      </c>
+      <c r="D127">
         <v>169.868710180666</v>
       </c>
-      <c r="E127" t="n">
-        <v>91.4677670203586</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
+      <c r="E127">
+        <v>91.467767020358593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>1996</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>139.537417373463</v>
       </c>
-      <c r="D128" t="n">
-        <v>181.398642585502</v>
-      </c>
-      <c r="E128" t="n">
-        <v>97.6761921614242</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
+      <c r="D128">
+        <v>181.39864258550199</v>
+      </c>
+      <c r="E128">
+        <v>97.676192161424197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>1997</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>148.691280797747</v>
       </c>
-      <c r="D129" t="n">
-        <v>193.29866503707</v>
-      </c>
-      <c r="E129" t="n">
-        <v>104.083896558423</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
+      <c r="D129">
+        <v>193.29866503707001</v>
+      </c>
+      <c r="E129">
+        <v>104.08389655842301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>1998</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" t="n">
-        <v>156.239745620358</v>
-      </c>
-      <c r="D130" t="n">
-        <v>203.111669306465</v>
-      </c>
-      <c r="E130" t="n">
+      <c r="C130">
+        <v>156.23974562035801</v>
+      </c>
+      <c r="D130">
+        <v>203.11166930646499</v>
+      </c>
+      <c r="E130">
         <v>109.36782193425</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>1999</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
       </c>
-      <c r="C131" t="n">
-        <v>162.052899694434</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C131">
+        <v>162.05289969443399</v>
+      </c>
+      <c r="D131">
         <v>210.668769602764</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>113.437029786103</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>2000</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" t="n">
-        <v>172.003367843971</v>
-      </c>
-      <c r="D132" t="n">
-        <v>223.604378197162</v>
-      </c>
-      <c r="E132" t="n">
-        <v>120.40235749078</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
+      <c r="C132">
+        <v>172.00336784397101</v>
+      </c>
+      <c r="D132">
+        <v>223.60437819716199</v>
+      </c>
+      <c r="E132">
+        <v>120.40235749078001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>2001</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>173.170911564405</v>
       </c>
-      <c r="D133" t="n">
-        <v>225.122185033727</v>
-      </c>
-      <c r="E133" t="n">
-        <v>121.219638095084</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="D133">
+        <v>225.12218503372699</v>
+      </c>
+      <c r="E133">
+        <v>121.21963809508399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>2002</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" t="n">
-        <v>193.373121339456</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="C134">
+        <v>193.37312133945599</v>
+      </c>
+      <c r="D134">
         <v>251.385057741292</v>
       </c>
-      <c r="E134" t="n">
-        <v>135.361184937619</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="E134">
+        <v>135.36118493761899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>2003</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>201.301310921126</v>
       </c>
-      <c r="D135" t="n">
-        <v>261.691704197464</v>
-      </c>
-      <c r="E135" t="n">
-        <v>140.910917644788</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="D135">
+        <v>261.69170419746399</v>
+      </c>
+      <c r="E135">
+        <v>140.91091764478799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>2004</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" t="n">
-        <v>222.448120006704</v>
-      </c>
-      <c r="D136" t="n">
-        <v>289.182556008716</v>
-      </c>
-      <c r="E136" t="n">
-        <v>155.713684004693</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C136">
+        <v>222.44812000670399</v>
+      </c>
+      <c r="D136">
+        <v>289.18255600871601</v>
+      </c>
+      <c r="E136">
+        <v>155.71368400469299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>2005</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="n">
-        <v>238.308800679549</v>
-      </c>
-      <c r="D137" t="n">
-        <v>309.801440883414</v>
-      </c>
-      <c r="E137" t="n">
+      <c r="C137">
+        <v>238.30880067954899</v>
+      </c>
+      <c r="D137">
+        <v>309.80144088341399</v>
+      </c>
+      <c r="E137">
         <v>166.816160475684</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>2006</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" t="n">
-        <v>230.25917976701</v>
-      </c>
-      <c r="D138" t="n">
-        <v>299.336933697114</v>
-      </c>
-      <c r="E138" t="n">
-        <v>161.181425836907</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
+      <c r="C138">
+        <v>230.25917976701001</v>
+      </c>
+      <c r="D138">
+        <v>299.33693369711398</v>
+      </c>
+      <c r="E138">
+        <v>161.18142583690701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>2007</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
-      <c r="C139" t="n">
-        <v>230.608681511983</v>
-      </c>
-      <c r="D139" t="n">
-        <v>299.791285965578</v>
-      </c>
-      <c r="E139" t="n">
-        <v>161.426077058388</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
+      <c r="C139">
+        <v>230.60868151198301</v>
+      </c>
+      <c r="D139">
+        <v>299.79128596557803</v>
+      </c>
+      <c r="E139">
+        <v>161.42607705838799</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>2008</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
-      <c r="C140" t="n">
-        <v>224.431214070649</v>
-      </c>
-      <c r="D140" t="n">
-        <v>291.760578291843</v>
-      </c>
-      <c r="E140" t="n">
+      <c r="C140">
+        <v>224.43121407064899</v>
+      </c>
+      <c r="D140">
+        <v>291.76057829184299</v>
+      </c>
+      <c r="E140">
         <v>157.101849849454</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>2009</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>230.2823264141</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>299.36702433833</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>161.19762848987</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>2010</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
-      <c r="C142" t="n">
-        <v>247.302611701456</v>
-      </c>
-      <c r="D142" t="n">
-        <v>321.493395211893</v>
-      </c>
-      <c r="E142" t="n">
-        <v>173.111828191019</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
+      <c r="C142">
+        <v>247.30261170145599</v>
+      </c>
+      <c r="D142">
+        <v>321.49339521189302</v>
+      </c>
+      <c r="E142">
+        <v>173.11182819101899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>2011</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" t="n">
-        <v>261.805774740842</v>
-      </c>
-      <c r="D143" t="n">
-        <v>340.347507163095</v>
-      </c>
-      <c r="E143" t="n">
-        <v>183.26404231859</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
+      <c r="C143">
+        <v>261.80577474084203</v>
+      </c>
+      <c r="D143">
+        <v>340.34750716309497</v>
+      </c>
+      <c r="E143">
+        <v>183.26404231858999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>2012</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
-      <c r="C144" t="n">
-        <v>277.971016990378</v>
-      </c>
-      <c r="D144" t="n">
-        <v>361.362322087491</v>
-      </c>
-      <c r="E144" t="n">
+      <c r="C144">
+        <v>277.97101699037802</v>
+      </c>
+      <c r="D144">
+        <v>361.36232208749101</v>
+      </c>
+      <c r="E144">
         <v>194.579711893264</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>2013</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
-      <c r="C145" t="n">
-        <v>291.787922494096</v>
-      </c>
-      <c r="D145" t="n">
-        <v>379.324299242325</v>
-      </c>
-      <c r="E145" t="n">
-        <v>204.251545745867</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
+      <c r="C145">
+        <v>291.78792249409599</v>
+      </c>
+      <c r="D145">
+        <v>379.32429924232503</v>
+      </c>
+      <c r="E145">
+        <v>204.25154574586699</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>2014</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
-      <c r="C146" t="n">
-        <v>312.707725089987</v>
-      </c>
-      <c r="D146" t="n">
-        <v>406.520042616983</v>
-      </c>
-      <c r="E146" t="n">
-        <v>218.895407562991</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="C146">
+        <v>312.70772508998698</v>
+      </c>
+      <c r="D146">
+        <v>406.52004261698301</v>
+      </c>
+      <c r="E146">
+        <v>218.89540756299101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>2015</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147" t="n">
-        <v>302.680251738304</v>
-      </c>
-      <c r="D147" t="n">
-        <v>393.484327259795</v>
-      </c>
-      <c r="E147" t="n">
-        <v>211.876176216813</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
+      <c r="C147">
+        <v>302.68025173830398</v>
+      </c>
+      <c r="D147">
+        <v>393.48432725979501</v>
+      </c>
+      <c r="E147">
+        <v>211.87617621681301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>2016</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" t="n">
-        <v>317.042153564232</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="C148">
+        <v>317.04215356423202</v>
+      </c>
+      <c r="D148">
         <v>412.154799633501</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>221.929507494962</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>2017</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
-      <c r="C149" t="n">
-        <v>335.202520281329</v>
-      </c>
-      <c r="D149" t="n">
-        <v>435.763276365728</v>
-      </c>
-      <c r="E149" t="n">
-        <v>234.64176419693</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
+      <c r="C149">
+        <v>335.20252028132899</v>
+      </c>
+      <c r="D149">
+        <v>435.76327636572802</v>
+      </c>
+      <c r="E149">
+        <v>234.64176419693001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>2018</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
-      <c r="C150" t="n">
-        <v>352.740371296177</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="C150">
+        <v>352.74037129617699</v>
+      </c>
+      <c r="D150">
         <v>458.562482685031</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>246.918259907324</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>2019</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" t="n">
-        <v>354.204053513978</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="C151">
+        <v>354.20405351397801</v>
+      </c>
+      <c r="D151">
         <v>460.465269568172</v>
       </c>
-      <c r="E151" t="n">
-        <v>247.942837459785</v>
+      <c r="E151">
+        <v>247.94283745978501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5382,92 +5415,92 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>167</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>133</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>129</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>133</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.97</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>354</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>